--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1633918.852569268</v>
+        <v>-1636491.598514131</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905547</v>
+        <v>234.8106639420664</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980817</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477571</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993359</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>370.2816430040588</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>262.625320218258</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.11779872993447</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.95923584271586</v>
+        <v>88.95923584271591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>166.4420886499519</v>
       </c>
       <c r="U11" t="n">
-        <v>37.99244208114346</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.1541709055433</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>344.6610088831278</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124.9562538769414</v>
+        <v>124.9562538769415</v>
       </c>
       <c r="C12" t="n">
-        <v>131.1315692153898</v>
+        <v>131.1315692153899</v>
       </c>
       <c r="D12" t="n">
-        <v>105.8681357917128</v>
+        <v>105.8681357917129</v>
       </c>
       <c r="E12" t="n">
-        <v>116.068150682475</v>
+        <v>116.0681506824751</v>
       </c>
       <c r="F12" t="n">
-        <v>103.492282620458</v>
+        <v>103.4922826204581</v>
       </c>
       <c r="G12" t="n">
-        <v>93.92379679477337</v>
+        <v>93.92379679477348</v>
       </c>
       <c r="H12" t="n">
-        <v>52.86103687007935</v>
+        <v>52.86103687007945</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>95.87721426077783</v>
+        <v>95.87721426077792</v>
       </c>
       <c r="T12" t="n">
-        <v>151.1600596356021</v>
+        <v>151.1600596356022</v>
       </c>
       <c r="U12" t="n">
-        <v>184.24321608466</v>
+        <v>184.2432160846601</v>
       </c>
       <c r="V12" t="n">
-        <v>191.2236573764993</v>
+        <v>191.2236573764995</v>
       </c>
       <c r="W12" t="n">
-        <v>210.1180533879937</v>
+        <v>210.1180533879938</v>
       </c>
       <c r="X12" t="n">
-        <v>164.1960554305516</v>
+        <v>164.1960554305517</v>
       </c>
       <c r="Y12" t="n">
-        <v>164.1057660043784</v>
+        <v>164.1057660043786</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452865</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736434</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.8441182500054</v>
       </c>
       <c r="G13" t="n">
-        <v>124.8691158536043</v>
+        <v>124.8691158536044</v>
       </c>
       <c r="H13" t="n">
-        <v>106.9143773724579</v>
+        <v>68.15170038399827</v>
       </c>
       <c r="I13" t="n">
-        <v>67.41317437960817</v>
+        <v>67.41317437960825</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.25062307589235</v>
+        <v>66.25062307589243</v>
       </c>
       <c r="S13" t="n">
-        <v>155.5156867721641</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>156.9834405455156</v>
+        <v>179.7675791643882</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>244.6578304709144</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905547</v>
+        <v>341.1569118905548</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980817</v>
+        <v>323.6959619980818</v>
       </c>
       <c r="D14" t="n">
-        <v>313.1061118477571</v>
+        <v>313.1061118477572</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993359</v>
+        <v>340.353440299336</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.2991159687857</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805276</v>
+        <v>369.3447958805277</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143946</v>
+        <v>61.36113588358278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524991</v>
+        <v>67.61083201525003</v>
       </c>
       <c r="T14" t="n">
-        <v>49.79512890746081</v>
+        <v>162.3410403666944</v>
       </c>
       <c r="U14" t="n">
-        <v>209.4182421859761</v>
+        <v>209.4182421859762</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.1541709055433</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831278</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452866</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736434</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>103.8441182500055</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861024</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413949</v>
+        <v>103.178085141395</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.7754906369123</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712141</v>
+        <v>47.35522289712155</v>
       </c>
       <c r="S16" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U16" t="n">
-        <v>170.7128293034302</v>
+        <v>244.6349084326871</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161114</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791689</v>
+        <v>48.31015381299692</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V17" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383247</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007098</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U20" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383247</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V23" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383247</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.07997133299679</v>
+        <v>53.07997133299682</v>
       </c>
       <c r="T26" t="n">
         <v>147.8101796844411</v>
       </c>
       <c r="U26" t="n">
-        <v>194.8873815037229</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V26" t="n">
         <v>271.6444680149559</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657082</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851115</v>
@@ -2685,7 +2685,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2716,22 +2716,22 @@
         <v>111.1390306434488</v>
       </c>
       <c r="D28" t="n">
-        <v>92.50768256303331</v>
+        <v>92.50768256303334</v>
       </c>
       <c r="E28" t="n">
-        <v>90.32617219139013</v>
+        <v>90.32617219139016</v>
       </c>
       <c r="F28" t="n">
-        <v>89.3132575677522</v>
+        <v>89.31325756775223</v>
       </c>
       <c r="G28" t="n">
         <v>109.9180178038492</v>
       </c>
       <c r="H28" t="n">
-        <v>88.64722445914174</v>
+        <v>88.64722445914177</v>
       </c>
       <c r="I28" t="n">
-        <v>40.24462995465905</v>
+        <v>40.24462995465908</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.82436221486829</v>
+        <v>32.82436221486832</v>
       </c>
       <c r="S28" t="n">
         <v>133.6612348762629</v>
@@ -2779,7 +2779,7 @@
         <v>169.6018649338581</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.4768628969157</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.0799713329968</v>
+        <v>53.07997133299681</v>
       </c>
       <c r="T29" t="n">
-        <v>147.8101796844411</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U29" t="n">
-        <v>194.8873815037229</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V29" t="n">
         <v>271.6444680149559</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247757</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>111.1390306434488</v>
       </c>
       <c r="D31" t="n">
-        <v>92.50768256303331</v>
+        <v>92.50768256303334</v>
       </c>
       <c r="E31" t="n">
-        <v>90.32617219139013</v>
+        <v>90.32617219139016</v>
       </c>
       <c r="F31" t="n">
-        <v>89.3132575677522</v>
+        <v>89.31325756775223</v>
       </c>
       <c r="G31" t="n">
         <v>109.9180178038492</v>
       </c>
       <c r="H31" t="n">
-        <v>88.64722445914174</v>
+        <v>88.64722445914177</v>
       </c>
       <c r="I31" t="n">
-        <v>40.24462995465905</v>
+        <v>40.24462995465908</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.82436221486829</v>
+        <v>32.82436221486832</v>
       </c>
       <c r="S31" t="n">
         <v>133.6612348762629</v>
@@ -3016,7 +3016,7 @@
         <v>169.6018649338581</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.4768628969157</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>326.6260512083014</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C32" t="n">
-        <v>309.1651013158284</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D32" t="n">
-        <v>298.5752511655038</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E32" t="n">
-        <v>325.8225796170826</v>
+        <v>325.8225796170828</v>
       </c>
       <c r="F32" t="n">
-        <v>350.7682552865323</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G32" t="n">
-        <v>354.8139351982743</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H32" t="n">
-        <v>238.4999739321413</v>
+        <v>238.4999739321415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.07997133299666</v>
+        <v>53.07997133299686</v>
       </c>
       <c r="T32" t="n">
-        <v>147.810179684441</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U32" t="n">
-        <v>194.8873815037228</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V32" t="n">
-        <v>271.6444680149557</v>
+        <v>271.6444680149559</v>
       </c>
       <c r="W32" t="n">
-        <v>293.1331782622339</v>
+        <v>293.133178262234</v>
       </c>
       <c r="X32" t="n">
-        <v>313.6233102232899</v>
+        <v>313.62331022329</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.1301482008744</v>
+        <v>330.1301482008746</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247757</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.7241897267581</v>
+        <v>123.7241897267583</v>
       </c>
       <c r="C34" t="n">
-        <v>111.1390306434487</v>
+        <v>111.1390306434488</v>
       </c>
       <c r="D34" t="n">
-        <v>92.50768256303319</v>
+        <v>92.50768256303337</v>
       </c>
       <c r="E34" t="n">
-        <v>90.32617219139</v>
+        <v>90.32617219139019</v>
       </c>
       <c r="F34" t="n">
-        <v>89.31325756775207</v>
+        <v>89.31325756775226</v>
       </c>
       <c r="G34" t="n">
-        <v>109.9180178038491</v>
+        <v>109.9180178038492</v>
       </c>
       <c r="H34" t="n">
-        <v>88.64722445914161</v>
+        <v>88.6472244591418</v>
       </c>
       <c r="I34" t="n">
-        <v>40.24462995465893</v>
+        <v>40.24462995465911</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.82436221486816</v>
+        <v>32.82436221486834</v>
       </c>
       <c r="S34" t="n">
-        <v>133.6612348762627</v>
+        <v>133.6612348762629</v>
       </c>
       <c r="T34" t="n">
-        <v>163.44115882099</v>
+        <v>163.4411588209902</v>
       </c>
       <c r="U34" t="n">
-        <v>230.1040477504337</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V34" t="n">
-        <v>196.0298528686488</v>
+        <v>196.029852868649</v>
       </c>
       <c r="W34" t="n">
-        <v>230.4152078814118</v>
+        <v>230.415207881412</v>
       </c>
       <c r="X34" t="n">
-        <v>169.601864933858</v>
+        <v>169.6018649338582</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.4768628969156</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,13 +3560,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,16 +3712,16 @@
         <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1399.680563480868</v>
+        <v>719.4483734185358</v>
       </c>
       <c r="C11" t="n">
-        <v>1072.714945300988</v>
+        <v>719.4483734185358</v>
       </c>
       <c r="D11" t="n">
-        <v>756.4461454547684</v>
+        <v>719.4483734185358</v>
       </c>
       <c r="E11" t="n">
-        <v>412.6547916170554</v>
+        <v>719.4483734185358</v>
       </c>
       <c r="F11" t="n">
-        <v>43.66578558797902</v>
+        <v>719.4483734185358</v>
       </c>
       <c r="G11" t="n">
-        <v>43.66578558797902</v>
+        <v>345.4265117982743</v>
       </c>
       <c r="H11" t="n">
-        <v>43.66578558797902</v>
+        <v>80.14841056771087</v>
       </c>
       <c r="I11" t="n">
-        <v>43.66578558797902</v>
+        <v>43.66578558797907</v>
       </c>
       <c r="J11" t="n">
-        <v>153.8263252817111</v>
+        <v>153.826325281711</v>
       </c>
       <c r="K11" t="n">
-        <v>369.6669363545816</v>
+        <v>369.666936354582</v>
       </c>
       <c r="L11" t="n">
-        <v>674.3380621808162</v>
+        <v>674.3380621808171</v>
       </c>
       <c r="M11" t="n">
-        <v>1045.0128309478</v>
+        <v>1045.012830947801</v>
       </c>
       <c r="N11" t="n">
-        <v>1426.299313380806</v>
+        <v>1426.299313380808</v>
       </c>
       <c r="O11" t="n">
-        <v>1773.002065483133</v>
+        <v>1773.002065483136</v>
       </c>
       <c r="P11" t="n">
-        <v>2034.403842291855</v>
+        <v>2034.403842291858</v>
       </c>
       <c r="Q11" t="n">
-        <v>2182.532943734426</v>
+        <v>2182.532943734429</v>
       </c>
       <c r="R11" t="n">
-        <v>2183.289279398951</v>
+        <v>2183.289279398954</v>
       </c>
       <c r="S11" t="n">
-        <v>2093.431465416409</v>
+        <v>2093.431465416412</v>
       </c>
       <c r="T11" t="n">
-        <v>2093.431465416409</v>
+        <v>1925.308143547775</v>
       </c>
       <c r="U11" t="n">
-        <v>2055.055261294042</v>
+        <v>1925.308143547775</v>
       </c>
       <c r="V11" t="n">
-        <v>2055.055261294042</v>
+        <v>1636.242154964735</v>
       </c>
       <c r="W11" t="n">
-        <v>1744.283504784459</v>
+        <v>1636.242154964735</v>
       </c>
       <c r="X11" t="n">
-        <v>1744.283504784459</v>
+        <v>1304.773295464187</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.283504784459</v>
+        <v>956.6308622489059</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.1051512191794</v>
+        <v>653.1051512191802</v>
       </c>
       <c r="C12" t="n">
-        <v>520.6490206985836</v>
+        <v>520.6490206985843</v>
       </c>
       <c r="D12" t="n">
-        <v>413.7115097978636</v>
+        <v>413.7115097978641</v>
       </c>
       <c r="E12" t="n">
-        <v>296.4709535529393</v>
+        <v>296.4709535529397</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9332943403555</v>
+        <v>191.9332943403558</v>
       </c>
       <c r="G12" t="n">
-        <v>97.06077232543291</v>
+        <v>97.06077232543306</v>
       </c>
       <c r="H12" t="n">
-        <v>43.66578558797902</v>
+        <v>43.66578558797907</v>
       </c>
       <c r="I12" t="n">
-        <v>49.1122772009672</v>
+        <v>49.11227720096718</v>
       </c>
       <c r="J12" t="n">
-        <v>95.9052930103133</v>
+        <v>95.90529301031341</v>
       </c>
       <c r="K12" t="n">
-        <v>254.0368348353119</v>
+        <v>254.0368348353123</v>
       </c>
       <c r="L12" t="n">
-        <v>512.9867486185065</v>
+        <v>554.1479090937036</v>
       </c>
       <c r="M12" t="n">
-        <v>834.5259522973918</v>
+        <v>881.1056547739854</v>
       </c>
       <c r="N12" t="n">
-        <v>1215.354719202004</v>
+        <v>1266.724849795434</v>
       </c>
       <c r="O12" t="n">
-        <v>1549.407890748942</v>
+        <v>1600.778021342373</v>
       </c>
       <c r="P12" t="n">
-        <v>1806.307645681757</v>
+        <v>1816.516615799991</v>
       </c>
       <c r="Q12" t="n">
-        <v>1941.765146815497</v>
+        <v>1951.974116933731</v>
       </c>
       <c r="R12" t="n">
-        <v>1951.97411693373</v>
+        <v>1951.974116933731</v>
       </c>
       <c r="S12" t="n">
-        <v>1855.128445963247</v>
+        <v>1855.128445963248</v>
       </c>
       <c r="T12" t="n">
-        <v>1702.441517038396</v>
+        <v>1702.441517038398</v>
       </c>
       <c r="U12" t="n">
-        <v>1516.337258367023</v>
+        <v>1516.337258367024</v>
       </c>
       <c r="V12" t="n">
-        <v>1323.182048895811</v>
+        <v>1323.182048895812</v>
       </c>
       <c r="W12" t="n">
-        <v>1110.941590928141</v>
+        <v>1110.941590928142</v>
       </c>
       <c r="X12" t="n">
-        <v>945.086989483139</v>
+        <v>945.08698948314</v>
       </c>
       <c r="Y12" t="n">
-        <v>779.3235894787163</v>
+        <v>779.3235894787172</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.859861396365</v>
+        <v>752.5986909534824</v>
       </c>
       <c r="C13" t="n">
-        <v>559.9205772289893</v>
+        <v>625.6594067861067</v>
       </c>
       <c r="D13" t="n">
-        <v>451.8008365771847</v>
+        <v>517.539666134302</v>
       </c>
       <c r="E13" t="n">
-        <v>345.8846417553228</v>
+        <v>411.62347131244</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8846417553228</v>
+        <v>306.7304225750608</v>
       </c>
       <c r="G13" t="n">
-        <v>219.7542217011771</v>
+        <v>180.6000025209149</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7599011229367</v>
+        <v>111.7599011229369</v>
       </c>
       <c r="I13" t="n">
-        <v>43.66578558797902</v>
+        <v>43.66578558797907</v>
       </c>
       <c r="J13" t="n">
         <v>100.535904446545</v>
@@ -5206,13 +5206,13 @@
         <v>593.2164476110861</v>
       </c>
       <c r="M13" t="n">
-        <v>913.3192773353015</v>
+        <v>913.3192773353016</v>
       </c>
       <c r="N13" t="n">
         <v>1232.224114051915</v>
       </c>
       <c r="O13" t="n">
-        <v>1513.910218138237</v>
+        <v>1513.910218138238</v>
       </c>
       <c r="P13" t="n">
         <v>1737.361337611876</v>
@@ -5221,28 +5221,28 @@
         <v>1821.295536711041</v>
       </c>
       <c r="R13" t="n">
-        <v>1754.37571542226</v>
+        <v>1754.375715422261</v>
       </c>
       <c r="S13" t="n">
-        <v>1597.289163127145</v>
+        <v>1754.375715422261</v>
       </c>
       <c r="T13" t="n">
-        <v>1438.720031262988</v>
+        <v>1572.792302124899</v>
       </c>
       <c r="U13" t="n">
-        <v>1438.720031262988</v>
+        <v>1325.663180437107</v>
       </c>
       <c r="V13" t="n">
-        <v>1438.720031262988</v>
+        <v>1325.663180437107</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.299759986558</v>
+        <v>1078.242909160677</v>
       </c>
       <c r="X13" t="n">
-        <v>1005.307107849072</v>
+        <v>892.250257023191</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.5114274660734</v>
+        <v>892.250257023191</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1682.20014132117</v>
+        <v>1857.583391056498</v>
       </c>
       <c r="C14" t="n">
-        <v>1355.234523141289</v>
+        <v>1530.617772876617</v>
       </c>
       <c r="D14" t="n">
-        <v>1038.96572329507</v>
+        <v>1214.348973030398</v>
       </c>
       <c r="E14" t="n">
-        <v>695.1743694573571</v>
+        <v>870.5576191926849</v>
       </c>
       <c r="F14" t="n">
-        <v>695.1743694573571</v>
+        <v>501.5686131636085</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0988180628848</v>
+        <v>128.4930617691357</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5306,22 +5306,22 @@
         <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3207.013941889261</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U14" t="n">
-        <v>2995.480363923629</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V14" t="n">
-        <v>2706.41437534059</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="W14" t="n">
-        <v>2706.41437534059</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="X14" t="n">
-        <v>2374.945515840041</v>
+        <v>2550.328765575369</v>
       </c>
       <c r="Y14" t="n">
-        <v>2026.80308262476</v>
+        <v>2202.186332360089</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.306610696965</v>
+        <v>797.6353891180897</v>
       </c>
       <c r="C16" t="n">
-        <v>615.3673265295893</v>
+        <v>670.6961049507139</v>
       </c>
       <c r="D16" t="n">
-        <v>507.2475858777848</v>
+        <v>562.5763642989093</v>
       </c>
       <c r="E16" t="n">
-        <v>401.3313910559229</v>
+        <v>456.6601694770472</v>
       </c>
       <c r="F16" t="n">
-        <v>296.4383423185442</v>
+        <v>351.7671207396681</v>
       </c>
       <c r="G16" t="n">
-        <v>170.7324044537944</v>
+        <v>226.0611828749181</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>121.840894853307</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543156</v>
+        <v>152.7959093543155</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783886</v>
+        <v>397.9442527783883</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020815</v>
+        <v>755.665211702081</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
@@ -5449,37 +5449,37 @@
         <v>1523.552954957888</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353499</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262355</v>
+        <v>2137.812375262354</v>
       </c>
       <c r="Q16" t="n">
-        <v>2256.583831890066</v>
+        <v>2256.583831890065</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408124</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995483</v>
+        <v>2059.061287995482</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325539</v>
       </c>
       <c r="U16" t="n">
-        <v>1706.854370008944</v>
+        <v>1632.185603211713</v>
       </c>
       <c r="V16" t="n">
-        <v>1494.166780563588</v>
+        <v>1419.498013766358</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.746509287158</v>
+        <v>1172.077742489928</v>
       </c>
       <c r="X16" t="n">
-        <v>1060.753857149672</v>
+        <v>986.0850903524416</v>
       </c>
       <c r="Y16" t="n">
-        <v>881.9581767666734</v>
+        <v>937.2869551877983</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D17" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V17" t="n">
         <v>2819.429779746128</v>
@@ -5558,7 +5558,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170932</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630295</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K19" t="n">
-        <v>273.3535972631172</v>
+        <v>370.0614702889408</v>
       </c>
       <c r="L19" t="n">
-        <v>525.7713142112983</v>
+        <v>525.7713142112981</v>
       </c>
       <c r="M19" t="n">
-        <v>770.0879214996988</v>
+        <v>693.2037955104959</v>
       </c>
       <c r="N19" t="n">
-        <v>941.3967585295463</v>
+        <v>961.2205055661672</v>
       </c>
       <c r="O19" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773562</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552144</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936509</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304679</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673505</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431765</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734897</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F20" t="n">
         <v>581.8252978307332</v>
@@ -5744,16 +5744,16 @@
         <v>265.424282249573</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5768,28 +5768,28 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X20" t="n">
         <v>2290.538235362621</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170932</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630295</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226752</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>176.3617198155308</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>371.380447109025</v>
       </c>
       <c r="L22" t="n">
-        <v>409.2396941488532</v>
+        <v>611.3204820829792</v>
       </c>
       <c r="M22" t="n">
-        <v>673.3800484738749</v>
+        <v>778.7529633821771</v>
       </c>
       <c r="N22" t="n">
-        <v>941.3967585295463</v>
+        <v>1046.769673437848</v>
       </c>
       <c r="O22" t="n">
-        <v>1176.02298077356</v>
+        <v>1281.395895681862</v>
       </c>
       <c r="P22" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.346898434621</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304679</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673505</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431765</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734897</v>
       </c>
     </row>
     <row r="23">
@@ -5978,61 +5978,61 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912101</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X23" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6105,7 +6105,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170932</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630295</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226751</v>
       </c>
       <c r="J25" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155307</v>
       </c>
       <c r="K25" t="n">
-        <v>371.3804471090252</v>
+        <v>371.3804471090249</v>
       </c>
       <c r="L25" t="n">
-        <v>623.7981640572063</v>
+        <v>623.7981640572059</v>
       </c>
       <c r="M25" t="n">
-        <v>887.938518382228</v>
+        <v>866.7957945255245</v>
       </c>
       <c r="N25" t="n">
-        <v>1155.955228437899</v>
+        <v>1134.812504581196</v>
       </c>
       <c r="O25" t="n">
-        <v>1293.873577656089</v>
+        <v>1272.730853799385</v>
       </c>
       <c r="P25" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552144</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936509</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304679</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673505</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431765</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734897</v>
       </c>
     </row>
     <row r="26">
@@ -6200,70 +6200,70 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1975.122438965142</v>
+        <v>1975.122438965141</v>
       </c>
       <c r="C26" t="n">
         <v>1662.834457838042</v>
       </c>
       <c r="D26" t="n">
-        <v>1361.243295044604</v>
+        <v>1361.243295044603</v>
       </c>
       <c r="E26" t="n">
-        <v>1032.129578259672</v>
+        <v>1032.129578259671</v>
       </c>
       <c r="F26" t="n">
-        <v>677.8182092833767</v>
+        <v>677.8182092833758</v>
       </c>
       <c r="G26" t="n">
         <v>319.4202949416845</v>
       </c>
       <c r="H26" t="n">
-        <v>78.51123036376379</v>
+        <v>78.51123036376376</v>
       </c>
       <c r="I26" t="n">
-        <v>92.89678243919434</v>
+        <v>92.8967824391943</v>
       </c>
       <c r="J26" t="n">
-        <v>337.322625948847</v>
+        <v>410.9732435652087</v>
       </c>
       <c r="K26" t="n">
-        <v>726.6887121893208</v>
+        <v>800.3393298056824</v>
       </c>
       <c r="L26" t="n">
-        <v>1233.269637988357</v>
+        <v>1306.920255604718</v>
       </c>
       <c r="M26" t="n">
-        <v>1822.348255210909</v>
+        <v>1895.99887282727</v>
       </c>
       <c r="N26" t="n">
-        <v>2424.673784820318</v>
+        <v>2498.32440243668</v>
       </c>
       <c r="O26" t="n">
-        <v>2991.784330192392</v>
+        <v>3056.843585866644</v>
       </c>
       <c r="P26" t="n">
-        <v>3442.105409100197</v>
+        <v>3507.164664774449</v>
       </c>
       <c r="Q26" t="n">
-        <v>3745.938483406507</v>
+        <v>3810.997739080758</v>
       </c>
       <c r="R26" t="n">
-        <v>3925.561518188189</v>
+        <v>3925.561518188188</v>
       </c>
       <c r="S26" t="n">
         <v>3871.945385528596</v>
       </c>
       <c r="T26" t="n">
-        <v>3722.642173726131</v>
+        <v>3722.64217372613</v>
       </c>
       <c r="U26" t="n">
         <v>3525.786232813279</v>
       </c>
       <c r="V26" t="n">
-        <v>3251.397881283021</v>
+        <v>3251.39788128302</v>
       </c>
       <c r="W26" t="n">
-        <v>2955.303761826219</v>
+        <v>2955.303761826218</v>
       </c>
       <c r="X26" t="n">
         <v>2638.512539378451</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>953.542968412689</v>
+        <v>953.5429684126891</v>
       </c>
       <c r="C27" t="n">
-        <v>779.089939131562</v>
+        <v>779.0899391315621</v>
       </c>
       <c r="D27" t="n">
-        <v>630.1555294703107</v>
+        <v>630.1555294703109</v>
       </c>
       <c r="E27" t="n">
-        <v>470.9180744648553</v>
+        <v>470.9180744648554</v>
       </c>
       <c r="F27" t="n">
-        <v>324.3835164917402</v>
+        <v>324.3835164917404</v>
       </c>
       <c r="G27" t="n">
         <v>188.0204163243583</v>
       </c>
       <c r="H27" t="n">
-        <v>97.51852196222583</v>
+        <v>97.5185219622258</v>
       </c>
       <c r="I27" t="n">
-        <v>78.51123036376379</v>
+        <v>78.51123036376376</v>
       </c>
       <c r="J27" t="n">
         <v>172.1884998543811</v>
@@ -6358,64 +6358,64 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>706.8910436802026</v>
+        <v>706.8910436802028</v>
       </c>
       <c r="C28" t="n">
-        <v>594.6293965656079</v>
+        <v>594.629396565608</v>
       </c>
       <c r="D28" t="n">
-        <v>501.1872929665843</v>
+        <v>501.1872929665844</v>
       </c>
       <c r="E28" t="n">
-        <v>409.9487351975033</v>
+        <v>409.9487351975035</v>
       </c>
       <c r="F28" t="n">
-        <v>319.7333235129051</v>
+        <v>319.7333235129053</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7050227009363</v>
+        <v>208.7050227009364</v>
       </c>
       <c r="H28" t="n">
         <v>119.1623717321063</v>
       </c>
       <c r="I28" t="n">
-        <v>78.51123036376379</v>
+        <v>78.51123036376376</v>
       </c>
       <c r="J28" t="n">
-        <v>179.1805753613266</v>
+        <v>145.8806964518305</v>
       </c>
       <c r="K28" t="n">
-        <v>333.0381421796242</v>
+        <v>405.414591951334</v>
       </c>
       <c r="L28" t="n">
-        <v>705.1446531787476</v>
+        <v>777.5211029504574</v>
       </c>
       <c r="M28" t="n">
-        <v>1104.848411328924</v>
+        <v>1177.224861100633</v>
       </c>
       <c r="N28" t="n">
-        <v>1501.803500585416</v>
+        <v>1574.179950357125</v>
       </c>
       <c r="O28" t="n">
-        <v>1807.116605302049</v>
+        <v>1876.083574188977</v>
       </c>
       <c r="P28" t="n">
-        <v>2095.270818286335</v>
+        <v>2030.581289492362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2163.738298195503</v>
+        <v>2163.738298195504</v>
       </c>
       <c r="R28" t="n">
         <v>2130.582376766344</v>
       </c>
       <c r="S28" t="n">
-        <v>1995.571028406482</v>
+        <v>1995.571028406483</v>
       </c>
       <c r="T28" t="n">
         <v>1830.478948789321</v>
       </c>
       <c r="U28" t="n">
-        <v>1598.050617728276</v>
+        <v>1598.050617728277</v>
       </c>
       <c r="V28" t="n">
         <v>1400.040665335702</v>
@@ -6424,10 +6424,10 @@
         <v>1167.298031112053</v>
       </c>
       <c r="X28" t="n">
-        <v>995.9830160273481</v>
+        <v>995.9830160273482</v>
       </c>
       <c r="Y28" t="n">
-        <v>831.8649726971302</v>
+        <v>831.8649726971303</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1975.12243896514</v>
+        <v>1975.122438965141</v>
       </c>
       <c r="C29" t="n">
         <v>1662.834457838041</v>
@@ -6449,64 +6449,64 @@
         <v>1032.129578259671</v>
       </c>
       <c r="F29" t="n">
-        <v>677.8182092833754</v>
+        <v>677.8182092833758</v>
       </c>
       <c r="G29" t="n">
-        <v>319.4202949416844</v>
+        <v>319.4202949416845</v>
       </c>
       <c r="H29" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="I29" t="n">
-        <v>92.89678243919431</v>
+        <v>92.89678243919433</v>
       </c>
       <c r="J29" t="n">
-        <v>337.322625948847</v>
+        <v>410.9732435652096</v>
       </c>
       <c r="K29" t="n">
-        <v>726.6887121893208</v>
+        <v>800.3393298056833</v>
       </c>
       <c r="L29" t="n">
-        <v>1233.269637988357</v>
+        <v>1306.920255604719</v>
       </c>
       <c r="M29" t="n">
-        <v>1822.348255210909</v>
+        <v>1895.998872827271</v>
       </c>
       <c r="N29" t="n">
-        <v>2424.673784820318</v>
+        <v>2498.32440243668</v>
       </c>
       <c r="O29" t="n">
-        <v>2983.192968250282</v>
+        <v>3056.843585866645</v>
       </c>
       <c r="P29" t="n">
-        <v>3433.514047158088</v>
+        <v>3507.16466477445</v>
       </c>
       <c r="Q29" t="n">
-        <v>3745.938483406506</v>
+        <v>3810.997739080759</v>
       </c>
       <c r="R29" t="n">
-        <v>3925.561518188188</v>
+        <v>3925.561518188189</v>
       </c>
       <c r="S29" t="n">
-        <v>3871.945385528595</v>
+        <v>3871.945385528596</v>
       </c>
       <c r="T29" t="n">
-        <v>3722.642173726129</v>
+        <v>3722.64217372613</v>
       </c>
       <c r="U29" t="n">
-        <v>3525.786232813278</v>
+        <v>3525.786232813279</v>
       </c>
       <c r="V29" t="n">
-        <v>3251.397881283019</v>
+        <v>3251.39788128302</v>
       </c>
       <c r="W29" t="n">
-        <v>2955.303761826217</v>
+        <v>2955.303761826218</v>
       </c>
       <c r="X29" t="n">
         <v>2638.51253937845</v>
       </c>
       <c r="Y29" t="n">
-        <v>2305.04774321595</v>
+        <v>2305.047743215951</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>97.51852196222598</v>
       </c>
       <c r="I30" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J30" t="n">
         <v>172.1884998543811</v>
@@ -6595,64 +6595,64 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.8910436802026</v>
+        <v>706.8910436802028</v>
       </c>
       <c r="C31" t="n">
-        <v>594.6293965656079</v>
+        <v>594.629396565608</v>
       </c>
       <c r="D31" t="n">
-        <v>501.1872929665843</v>
+        <v>501.1872929665844</v>
       </c>
       <c r="E31" t="n">
-        <v>409.9487351975033</v>
+        <v>409.9487351975035</v>
       </c>
       <c r="F31" t="n">
-        <v>319.7333235129051</v>
+        <v>319.7333235129053</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7050227009363</v>
+        <v>208.7050227009364</v>
       </c>
       <c r="H31" t="n">
-        <v>119.1623717321062</v>
+        <v>119.1623717321063</v>
       </c>
       <c r="I31" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J31" t="n">
-        <v>145.8806964518305</v>
+        <v>179.1805753613266</v>
       </c>
       <c r="K31" t="n">
-        <v>405.414591951334</v>
+        <v>438.7144708608302</v>
       </c>
       <c r="L31" t="n">
-        <v>777.5211029504574</v>
+        <v>810.8209818599536</v>
       </c>
       <c r="M31" t="n">
-        <v>1177.224861100634</v>
+        <v>1160.695215456561</v>
       </c>
       <c r="N31" t="n">
-        <v>1574.179950357126</v>
+        <v>1387.550765037035</v>
       </c>
       <c r="O31" t="n">
-        <v>1767.645012125942</v>
+        <v>1742.427076508076</v>
       </c>
       <c r="P31" t="n">
         <v>2030.581289492362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2163.738298195503</v>
+        <v>2163.738298195504</v>
       </c>
       <c r="R31" t="n">
         <v>2130.582376766344</v>
       </c>
       <c r="S31" t="n">
-        <v>1995.571028406482</v>
+        <v>1995.571028406483</v>
       </c>
       <c r="T31" t="n">
         <v>1830.478948789321</v>
       </c>
       <c r="U31" t="n">
-        <v>1598.050617728276</v>
+        <v>1598.050617728277</v>
       </c>
       <c r="V31" t="n">
         <v>1400.040665335702</v>
@@ -6661,10 +6661,10 @@
         <v>1167.298031112053</v>
       </c>
       <c r="X31" t="n">
-        <v>995.9830160273481</v>
+        <v>995.9830160273482</v>
       </c>
       <c r="Y31" t="n">
-        <v>831.8649726971302</v>
+        <v>831.8649726971303</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>1975.122438965141</v>
       </c>
       <c r="C32" t="n">
-        <v>1662.834457838041</v>
+        <v>1662.834457838042</v>
       </c>
       <c r="D32" t="n">
         <v>1361.243295044603</v>
@@ -6686,64 +6686,64 @@
         <v>1032.129578259671</v>
       </c>
       <c r="F32" t="n">
-        <v>677.8182092833755</v>
+        <v>677.8182092833756</v>
       </c>
       <c r="G32" t="n">
-        <v>319.4202949416843</v>
+        <v>319.4202949416845</v>
       </c>
       <c r="H32" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="I32" t="n">
-        <v>92.89678243919442</v>
+        <v>92.8967824391943</v>
       </c>
       <c r="J32" t="n">
-        <v>337.3226259488472</v>
+        <v>337.3226259488469</v>
       </c>
       <c r="K32" t="n">
-        <v>726.688712189321</v>
+        <v>726.6887121893205</v>
       </c>
       <c r="L32" t="n">
         <v>1233.269637988357</v>
       </c>
       <c r="M32" t="n">
-        <v>1822.348255210909</v>
+        <v>1822.348255210908</v>
       </c>
       <c r="N32" t="n">
-        <v>2424.673784820319</v>
+        <v>2424.673784820318</v>
       </c>
       <c r="O32" t="n">
-        <v>2983.192968250283</v>
+        <v>2983.192968250282</v>
       </c>
       <c r="P32" t="n">
-        <v>3433.514047158089</v>
+        <v>3433.514047158088</v>
       </c>
       <c r="Q32" t="n">
-        <v>3745.938483406505</v>
+        <v>3810.997739080759</v>
       </c>
       <c r="R32" t="n">
-        <v>3925.561518188188</v>
+        <v>3925.561518188189</v>
       </c>
       <c r="S32" t="n">
-        <v>3871.945385528595</v>
+        <v>3871.945385528596</v>
       </c>
       <c r="T32" t="n">
-        <v>3722.642173726129</v>
+        <v>3722.64217372613</v>
       </c>
       <c r="U32" t="n">
-        <v>3525.786232813277</v>
+        <v>3525.786232813279</v>
       </c>
       <c r="V32" t="n">
-        <v>3251.397881283019</v>
+        <v>3251.39788128302</v>
       </c>
       <c r="W32" t="n">
-        <v>2955.303761826217</v>
+        <v>2955.303761826218</v>
       </c>
       <c r="X32" t="n">
-        <v>2638.51253937845</v>
+        <v>2638.512539378451</v>
       </c>
       <c r="Y32" t="n">
-        <v>2305.04774321595</v>
+        <v>2305.047743215951</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>97.51852196222598</v>
       </c>
       <c r="I33" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J33" t="n">
         <v>172.1884998543811</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>706.8910436802017</v>
+        <v>706.8910436802031</v>
       </c>
       <c r="C34" t="n">
-        <v>594.6293965656071</v>
+        <v>594.6293965656083</v>
       </c>
       <c r="D34" t="n">
-        <v>501.1872929665836</v>
+        <v>501.1872929665847</v>
       </c>
       <c r="E34" t="n">
-        <v>409.9487351975028</v>
+        <v>409.9487351975037</v>
       </c>
       <c r="F34" t="n">
-        <v>319.7333235129047</v>
+        <v>319.7333235129054</v>
       </c>
       <c r="G34" t="n">
-        <v>208.705022700936</v>
+        <v>208.7050227009364</v>
       </c>
       <c r="H34" t="n">
-        <v>119.1623717321061</v>
+        <v>119.1623717321063</v>
       </c>
       <c r="I34" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J34" t="n">
-        <v>145.8806964518306</v>
+        <v>179.1805753613265</v>
       </c>
       <c r="K34" t="n">
-        <v>299.7382632701284</v>
+        <v>438.7144708608301</v>
       </c>
       <c r="L34" t="n">
-        <v>671.844774269252</v>
+        <v>810.8209818599535</v>
       </c>
       <c r="M34" t="n">
-        <v>1071.548532419428</v>
+        <v>1210.52474001013</v>
       </c>
       <c r="N34" t="n">
-        <v>1468.50362167592</v>
+        <v>1452.24029383101</v>
       </c>
       <c r="O34" t="n">
-        <v>1823.379933146961</v>
+        <v>1807.116605302051</v>
       </c>
       <c r="P34" t="n">
-        <v>2095.270818286334</v>
+        <v>2095.270818286337</v>
       </c>
       <c r="Q34" t="n">
-        <v>2163.738298195502</v>
+        <v>2163.738298195505</v>
       </c>
       <c r="R34" t="n">
-        <v>2130.582376766342</v>
+        <v>2130.582376766345</v>
       </c>
       <c r="S34" t="n">
-        <v>1995.571028406481</v>
+        <v>1995.571028406483</v>
       </c>
       <c r="T34" t="n">
-        <v>1830.478948789319</v>
+        <v>1830.478948789322</v>
       </c>
       <c r="U34" t="n">
-        <v>1598.050617728275</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V34" t="n">
-        <v>1400.0406653357</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W34" t="n">
-        <v>1167.298031112052</v>
+        <v>1167.298031112054</v>
       </c>
       <c r="X34" t="n">
-        <v>995.9830160273469</v>
+        <v>995.9830160273488</v>
       </c>
       <c r="Y34" t="n">
-        <v>831.8649726971291</v>
+        <v>831.8649726971307</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,10 +6935,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6971,16 +6971,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7020,7 +7020,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7072,10 +7072,10 @@
         <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159869</v>
@@ -7084,7 +7084,7 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7096,7 +7096,7 @@
         <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>370.061470288941</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L37" t="n">
         <v>602.6554402005009</v>
@@ -7138,7 +7138,7 @@
         <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307339</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919199</v>
@@ -7324,34 +7324,34 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889411</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L40" t="n">
-        <v>622.4791872371222</v>
+        <v>505.947567174677</v>
       </c>
       <c r="M40" t="n">
-        <v>875.4608364079993</v>
+        <v>770.0879214996987</v>
       </c>
       <c r="N40" t="n">
-        <v>1143.477546463671</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O40" t="n">
-        <v>1378.103768707684</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
@@ -7366,16 +7366,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7406,16 +7406,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>155.2189959588256</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090253</v>
+        <v>253.529850226496</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313825</v>
+        <v>409.2396941488532</v>
       </c>
       <c r="M43" t="n">
-        <v>694.5227723305803</v>
+        <v>673.3800484738749</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295459</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O43" t="n">
         <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
         <v>1481.310496936507</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>155.218995958825</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>350.2377232523193</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L46" t="n">
-        <v>602.6554402005005</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>866.7957945255222</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>962.5394823862517</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799383</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577966</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>74.39456324885023</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.678143375868331</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10045,13 +10045,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>112.9778211594101</v>
+        <v>109.5339010737721</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>74.39456324885114</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.678143375867421</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10276,16 +10276,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>128.1768078250326</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>109.5339010737709</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.678143375865432</v>
+        <v>74.39456324885083</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10516,13 +10516,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>15.01010529333902</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>118.5789594302897</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>106.3462479484884</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>323.6959619980818</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>313.1061118477572</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>340.353440299336</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687857</v>
       </c>
       <c r="G11" t="n">
-        <v>370.2816430040587</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>262.6253202182579</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.11779872993444</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4420886499518</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5007478747151</v>
+        <v>209.4931899558586</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>307.6640389444872</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.76267698845976</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.5156867721643</v>
       </c>
       <c r="T13" t="n">
-        <v>22.78413861887253</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6578304709143</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>191.6696987308119</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>112.5459114592334</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>307.6640389444872</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691217</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.9220791292567</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>128.6975697661721</v>
       </c>
     </row>
     <row r="17">
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.888489364887391e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1006174.162721502</v>
+        <v>1006174.162721503</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1166054.133617916</v>
+        <v>1166054.133617915</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>184337.1762113337</v>
+      </c>
+      <c r="C2" t="n">
         <v>184337.1762113336</v>
       </c>
-      <c r="C2" t="n">
-        <v>184337.1762113337</v>
-      </c>
       <c r="D2" t="n">
-        <v>184352.1944726456</v>
+        <v>184352.1944726454</v>
       </c>
       <c r="E2" t="n">
-        <v>146382.1157989502</v>
+        <v>146382.1157989503</v>
       </c>
       <c r="F2" t="n">
         <v>169970.9639639948</v>
       </c>
       <c r="G2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="H2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="I2" t="n">
         <v>184734.3982194636</v>
@@ -26338,19 +26338,19 @@
         <v>184734.3982194636</v>
       </c>
       <c r="K2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194637</v>
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>178636.7950430952</v>
+        <v>178636.7950430973</v>
       </c>
       <c r="E3" t="n">
-        <v>716956.9442962999</v>
+        <v>716956.9442962987</v>
       </c>
       <c r="F3" t="n">
-        <v>266031.7208775256</v>
+        <v>266031.7208775249</v>
       </c>
       <c r="G3" t="n">
-        <v>44886.23236414323</v>
+        <v>44886.23236414335</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39243.70206893017</v>
+        <v>39243.70206893</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44886.23236414334</v>
+        <v>44886.23236414319</v>
       </c>
       <c r="M3" t="n">
-        <v>131904.8093616053</v>
+        <v>131904.8093616056</v>
       </c>
       <c r="N3" t="n">
-        <v>69946.0409334807</v>
+        <v>69946.04093348043</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.641531071072677e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>394913.3853753752</v>
+        <v>394913.3853753743</v>
       </c>
       <c r="E4" t="n">
-        <v>76483.98047465974</v>
+        <v>76483.98047465959</v>
       </c>
       <c r="F4" t="n">
-        <v>56665.34341111052</v>
+        <v>56665.34341111041</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.1378265769</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657687</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="J4" t="n">
+        <v>94694.05463332683</v>
+      </c>
+      <c r="K4" t="n">
         <v>94694.05463332689</v>
       </c>
-      <c r="K4" t="n">
-        <v>94694.05463332686</v>
-      </c>
       <c r="L4" t="n">
-        <v>94694.05463332692</v>
+        <v>94694.05463332683</v>
       </c>
       <c r="M4" t="n">
         <v>93774.13782657699</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="O4" t="n">
         <v>93774.137826577</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38174.79578607948</v>
+        <v>38174.79578607954</v>
       </c>
       <c r="E5" t="n">
-        <v>55358.17228974956</v>
+        <v>55358.17228974959</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.6714704734</v>
+        <v>77801.67147047339</v>
       </c>
       <c r="G5" t="n">
         <v>82518.59730624987</v>
@@ -26488,7 +26488,7 @@
         <v>82518.59730624987</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
         <v>88142.59298517081</v>
@@ -26497,7 +26497,7 @@
         <v>88142.59298517081</v>
       </c>
       <c r="L5" t="n">
-        <v>88142.59298517082</v>
+        <v>88142.59298517081</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316906.3837203976</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="C6" t="n">
-        <v>-316906.3837203975</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="D6" t="n">
-        <v>-427372.7817319043</v>
+        <v>-427377.0284402038</v>
       </c>
       <c r="E6" t="n">
-        <v>-702416.9812617591</v>
+        <v>-702843.1177330966</v>
       </c>
       <c r="F6" t="n">
-        <v>-230527.7717951147</v>
+        <v>-230691.809953508</v>
       </c>
       <c r="G6" t="n">
-        <v>-36444.56927750647</v>
+        <v>-36444.56927750642</v>
       </c>
       <c r="H6" t="n">
-        <v>8441.663086636836</v>
+        <v>8441.66308663685</v>
       </c>
       <c r="I6" t="n">
-        <v>8441.663086636734</v>
+        <v>8441.663086636996</v>
       </c>
       <c r="J6" t="n">
-        <v>-37345.95146796427</v>
+        <v>-37345.95146796398</v>
       </c>
       <c r="K6" t="n">
-        <v>1897.750600965956</v>
+        <v>1897.750600966014</v>
       </c>
       <c r="L6" t="n">
-        <v>-42988.48176317748</v>
+        <v>-42988.48176317717</v>
       </c>
       <c r="M6" t="n">
-        <v>-123463.1462749685</v>
+        <v>-123463.1462749687</v>
       </c>
       <c r="N6" t="n">
-        <v>-61504.37784684396</v>
+        <v>-61504.37784684366</v>
       </c>
       <c r="O6" t="n">
-        <v>8441.66308663672</v>
+        <v>8441.663086636894</v>
       </c>
       <c r="P6" t="n">
         <v>8441.663086636865</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G2" t="n">
+        <v>97.68472022810482</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97.68472022810482</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97.68472022810482</v>
+      </c>
+      <c r="J2" t="n">
+        <v>56.10779045517902</v>
+      </c>
+      <c r="K2" t="n">
+        <v>56.10779045517902</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56.10779045517898</v>
+      </c>
+      <c r="M2" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="J2" t="n">
-        <v>56.10779045517904</v>
-      </c>
-      <c r="K2" t="n">
-        <v>56.10779045517904</v>
-      </c>
-      <c r="L2" t="n">
-        <v>56.10779045517917</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810494</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810496</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641966</v>
+        <v>208.5869626641989</v>
       </c>
       <c r="E3" t="n">
-        <v>856.7359786149264</v>
+        <v>856.7359786149269</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497377</v>
+        <v>545.8223198497384</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="J4" t="n">
+        <v>981.390379547047</v>
+      </c>
+      <c r="K4" t="n">
+        <v>981.3903795470472</v>
+      </c>
+      <c r="L4" t="n">
+        <v>981.3903795470472</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="J4" t="n">
-        <v>981.3903795470472</v>
-      </c>
-      <c r="K4" t="n">
-        <v>981.390379547047</v>
-      </c>
-      <c r="L4" t="n">
-        <v>981.390379547047</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517903</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292577</v>
+        <v>41.57692977292597</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641966</v>
+        <v>208.5869626641989</v>
       </c>
       <c r="E3" t="n">
-        <v>648.1490159507298</v>
+        <v>648.149015950728</v>
       </c>
       <c r="F3" t="n">
-        <v>233.0407219783719</v>
+        <v>233.0407219783714</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497377</v>
+        <v>545.8223198497384</v>
       </c>
       <c r="F4" t="n">
-        <v>285.579135552555</v>
+        <v>285.5791355525542</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>149.9889241447546</v>
+        <v>149.9889241447539</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.8333957049834</v>
+        <v>395.8333957049838</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5791355525552</v>
+        <v>285.5791355525541</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517903</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.8223198497377</v>
+        <v>545.8223198497384</v>
       </c>
       <c r="N4" t="n">
-        <v>285.579135552555</v>
+        <v>285.5791355525542</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>330.8870986730146</v>
+        <v>330.8870986730145</v>
       </c>
       <c r="I8" t="n">
-        <v>178.1480548845308</v>
+        <v>178.1480548845304</v>
       </c>
       <c r="J8" t="n">
-        <v>109.875823230524</v>
+        <v>109.8758232305232</v>
       </c>
       <c r="K8" t="n">
-        <v>113.4243481223844</v>
+        <v>113.4243481223832</v>
       </c>
       <c r="L8" t="n">
-        <v>103.4384265855442</v>
+        <v>103.4384265855427</v>
       </c>
       <c r="M8" t="n">
-        <v>83.10584927587735</v>
+        <v>83.10584927587567</v>
       </c>
       <c r="N8" t="n">
-        <v>79.79017629777985</v>
+        <v>79.79017629777812</v>
       </c>
       <c r="O8" t="n">
-        <v>88.81356175098463</v>
+        <v>88.81356175098301</v>
       </c>
       <c r="P8" t="n">
-        <v>110.6498159972201</v>
+        <v>110.6498159972187</v>
       </c>
       <c r="Q8" t="n">
-        <v>131.7527436858937</v>
+        <v>131.7527436858927</v>
       </c>
       <c r="R8" t="n">
-        <v>162.9115647751177</v>
+        <v>162.9115647751171</v>
       </c>
       <c r="S8" t="n">
-        <v>189.9118267250981</v>
+        <v>189.9118267250979</v>
       </c>
       <c r="T8" t="n">
         <v>219.4251382915182</v>
@@ -27947,40 +27947,40 @@
         <v>136.8948584133292</v>
       </c>
       <c r="H9" t="n">
-        <v>107.902345257378</v>
+        <v>107.9023452573779</v>
       </c>
       <c r="I9" t="n">
-        <v>84.07513795364204</v>
+        <v>84.07513795364187</v>
       </c>
       <c r="J9" t="n">
-        <v>84.44921381053973</v>
+        <v>84.44921381053923</v>
       </c>
       <c r="K9" t="n">
-        <v>65.3928898761729</v>
+        <v>65.39288987617208</v>
       </c>
       <c r="L9" t="n">
-        <v>41.13836481109067</v>
+        <v>41.13836481108956</v>
       </c>
       <c r="M9" t="n">
-        <v>28.45413927003121</v>
+        <v>28.4541392700299</v>
       </c>
       <c r="N9" t="n">
-        <v>14.65304888499186</v>
+        <v>14.65304888499053</v>
       </c>
       <c r="O9" t="n">
-        <v>35.84891459874</v>
+        <v>35.84891459873877</v>
       </c>
       <c r="P9" t="n">
-        <v>48.30026420231334</v>
+        <v>48.30026420231236</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.71087822395758</v>
+        <v>82.71087822395693</v>
       </c>
       <c r="R9" t="n">
-        <v>117.8233054406209</v>
+        <v>117.8233054406205</v>
       </c>
       <c r="S9" t="n">
-        <v>163.3495316049428</v>
+        <v>163.3495316049427</v>
       </c>
       <c r="T9" t="n">
         <v>198.3563190845537</v>
@@ -28026,40 +28026,40 @@
         <v>167.6148389339823</v>
       </c>
       <c r="H10" t="n">
-        <v>158.8829421880038</v>
+        <v>158.8829421880037</v>
       </c>
       <c r="I10" t="n">
-        <v>144.138906525731</v>
+        <v>144.1389065257309</v>
       </c>
       <c r="J10" t="n">
-        <v>100.4022934289132</v>
+        <v>100.4022934289129</v>
       </c>
       <c r="K10" t="n">
-        <v>85.31257976318405</v>
+        <v>85.31257976318355</v>
       </c>
       <c r="L10" t="n">
-        <v>78.96285353680761</v>
+        <v>78.96285353680697</v>
       </c>
       <c r="M10" t="n">
-        <v>79.96406268172407</v>
+        <v>79.96406268172339</v>
       </c>
       <c r="N10" t="n">
-        <v>70.12580114512789</v>
+        <v>70.12580114512724</v>
       </c>
       <c r="O10" t="n">
-        <v>85.29079918130297</v>
+        <v>85.29079918130236</v>
       </c>
       <c r="P10" t="n">
-        <v>92.2355294379268</v>
+        <v>92.23552943792629</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.0083702671522</v>
+        <v>120.0083702671518</v>
       </c>
       <c r="R10" t="n">
-        <v>160.3807501093479</v>
+        <v>160.3807501093477</v>
       </c>
       <c r="S10" t="n">
-        <v>217.4614962758696</v>
+        <v>217.4614962758695</v>
       </c>
       <c r="T10" t="n">
         <v>226.3384439782459</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="C12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="D12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="E12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="F12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="G12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="H12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="I12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28196,46 +28196,46 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>5.473274748885103</v>
       </c>
       <c r="N12" t="n">
-        <v>36.73811349329344</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="O12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="P12" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="R12" t="n">
-        <v>41.57692977292592</v>
+        <v>31.26483874440819</v>
       </c>
       <c r="S12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="T12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="U12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="V12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="W12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="X12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729258</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>77.66073332242698</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242897</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="L22" t="n">
-        <v>77.66073332242695</v>
+        <v>85.08100106221906</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,43 +29193,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350416238</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.32843350416019</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="C26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="D26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="E26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="F26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="G26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="H26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="J26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="K26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="L26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="M26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="N26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="O26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="P26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="R26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="S26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="T26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="U26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="V26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="W26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="X26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="C28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="D28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="E28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="F28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="G28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="H28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="I28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="J28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="K28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="L28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="M28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="N28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="O28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="P28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="R28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="S28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="T28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="U28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="V28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="W28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="X28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="C29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="D29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="E29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="F29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="G29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="H29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="J29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="K29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="L29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="M29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="N29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="O29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="P29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="R29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="S29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="T29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="U29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="V29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="W29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="X29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Y29" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="C31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="D31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="E31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="F31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="G31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="H31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="I31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="J31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="K31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="L31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="M31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="N31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="O31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="P31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="R31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="S31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="T31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="U31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="V31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="W31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="X31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.10779045517904</v>
+        <v>56.10779045517902</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="C32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="D32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="E32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="F32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="G32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="H32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="J32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="K32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="L32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="M32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="N32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="O32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="P32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="R32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="S32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="T32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="U32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="V32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="W32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="X32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="C34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="D34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="E34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="F34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="G34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="H34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="I34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="J34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="K34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="L34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="M34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="N34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="O34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="P34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="R34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="S34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="T34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="U34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="V34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="W34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="X34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517898</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L37" t="n">
-        <v>77.66073332242695</v>
+        <v>77.66073332242689</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810496</v>
+        <v>76.32843350415982</v>
       </c>
       <c r="M40" t="n">
-        <v>86.41330088048409</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810496</v>
+        <v>76.3284335041601</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
-        <v>76.32843350415962</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>76.32843350415952</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810496</v>
+        <v>85.08100106221781</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810496</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8385405534239051</v>
+        <v>0.8385405534239148</v>
       </c>
       <c r="H8" t="n">
-        <v>8.58770344275257</v>
+        <v>8.58770344275267</v>
       </c>
       <c r="I8" t="n">
-        <v>32.32783468587513</v>
+        <v>32.3278346858755</v>
       </c>
       <c r="J8" t="n">
-        <v>71.17008129616224</v>
+        <v>71.17008129616305</v>
       </c>
       <c r="K8" t="n">
-        <v>106.6655029225962</v>
+        <v>106.6655029225974</v>
       </c>
       <c r="L8" t="n">
-        <v>132.327988384443</v>
+        <v>132.3279883844446</v>
       </c>
       <c r="M8" t="n">
-        <v>147.2403839513954</v>
+        <v>147.2403839513971</v>
       </c>
       <c r="N8" t="n">
-        <v>149.6228872988111</v>
+        <v>149.6228872988128</v>
       </c>
       <c r="O8" t="n">
-        <v>141.2846496707021</v>
+        <v>141.2846496707037</v>
       </c>
       <c r="P8" t="n">
-        <v>120.5831797580494</v>
+        <v>120.5831797580508</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.55294618855579</v>
+        <v>90.55294618855683</v>
       </c>
       <c r="R8" t="n">
-        <v>52.67397303901443</v>
+        <v>52.67397303901503</v>
       </c>
       <c r="S8" t="n">
-        <v>19.10824286114726</v>
+        <v>19.10824286114748</v>
       </c>
       <c r="T8" t="n">
-        <v>3.670711272613147</v>
+        <v>3.670711272613189</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06708324427391239</v>
+        <v>0.06708324427391317</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4486587498814794</v>
+        <v>0.4486587498814846</v>
       </c>
       <c r="H9" t="n">
-        <v>4.333098979118499</v>
+        <v>4.333098979118549</v>
       </c>
       <c r="I9" t="n">
-        <v>15.44724204635795</v>
+        <v>15.44724204635813</v>
       </c>
       <c r="J9" t="n">
-        <v>42.38841285612697</v>
+        <v>42.38841285612746</v>
       </c>
       <c r="K9" t="n">
-        <v>72.44854909818609</v>
+        <v>72.44854909818692</v>
       </c>
       <c r="L9" t="n">
-        <v>97.41601496878351</v>
+        <v>97.41601496878462</v>
       </c>
       <c r="M9" t="n">
-        <v>113.6798946519871</v>
+        <v>113.6798946519884</v>
       </c>
       <c r="N9" t="n">
-        <v>116.6886631983414</v>
+        <v>116.6886631983428</v>
       </c>
       <c r="O9" t="n">
-        <v>106.7473298457044</v>
+        <v>106.7473298457057</v>
       </c>
       <c r="P9" t="n">
-        <v>85.6741432120169</v>
+        <v>85.67414321201788</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.27089586206394</v>
+        <v>57.27089586206459</v>
       </c>
       <c r="R9" t="n">
-        <v>27.85619852334309</v>
+        <v>27.85619852334341</v>
       </c>
       <c r="S9" t="n">
-        <v>8.333639498895018</v>
+        <v>8.333639498895113</v>
       </c>
       <c r="T9" t="n">
-        <v>1.808409610267892</v>
+        <v>1.808409610267913</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0295170230185184</v>
+        <v>0.02951702301851873</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.37614042447642</v>
+        <v>0.3761404244764243</v>
       </c>
       <c r="H10" t="n">
-        <v>3.344230319435809</v>
+        <v>3.344230319435848</v>
       </c>
       <c r="I10" t="n">
-        <v>11.31156840152725</v>
+        <v>11.31156840152738</v>
       </c>
       <c r="J10" t="n">
-        <v>26.59312801048289</v>
+        <v>26.59312801048319</v>
       </c>
       <c r="K10" t="n">
-        <v>43.70067840735133</v>
+        <v>43.70067840735183</v>
       </c>
       <c r="L10" t="n">
-        <v>55.92182274443067</v>
+        <v>55.92182274443131</v>
       </c>
       <c r="M10" t="n">
-        <v>58.96172126588099</v>
+        <v>58.96172126588166</v>
       </c>
       <c r="N10" t="n">
-        <v>57.55974332010529</v>
+        <v>57.55974332010595</v>
       </c>
       <c r="O10" t="n">
-        <v>53.16573927053982</v>
+        <v>53.16573927054043</v>
       </c>
       <c r="P10" t="n">
-        <v>45.49247461122081</v>
+        <v>45.49247461122133</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.49663136229368</v>
+        <v>31.49663136229404</v>
       </c>
       <c r="R10" t="n">
-        <v>16.91264126782157</v>
+        <v>16.91264126782177</v>
       </c>
       <c r="S10" t="n">
-        <v>6.555101761102699</v>
+        <v>6.555101761102774</v>
       </c>
       <c r="T10" t="n">
-        <v>1.607145450035612</v>
+        <v>1.607145450035631</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02051675042598657</v>
+        <v>0.02051675042598681</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.444164738150455</v>
+        <v>3.444164738150457</v>
       </c>
       <c r="H11" t="n">
-        <v>35.27255212458336</v>
+        <v>35.27255212458338</v>
       </c>
       <c r="I11" t="n">
         <v>132.7811610675456</v>
       </c>
       <c r="J11" t="n">
-        <v>292.3191769445975</v>
+        <v>292.3191769445976</v>
       </c>
       <c r="K11" t="n">
-        <v>438.1106703105063</v>
+        <v>438.1106703105066</v>
       </c>
       <c r="L11" t="n">
-        <v>543.5150269156784</v>
+        <v>543.5150269156787</v>
       </c>
       <c r="M11" t="n">
-        <v>604.7651915777616</v>
+        <v>604.7651915777619</v>
       </c>
       <c r="N11" t="n">
-        <v>614.5509246400316</v>
+        <v>614.550924640032</v>
       </c>
       <c r="O11" t="n">
-        <v>580.303011525048</v>
+        <v>580.3030115250483</v>
       </c>
       <c r="P11" t="n">
-        <v>495.2751945519585</v>
+        <v>495.2751945519589</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.9310448669452</v>
+        <v>371.9310448669455</v>
       </c>
       <c r="R11" t="n">
-        <v>216.3495132328437</v>
+        <v>216.3495132328439</v>
       </c>
       <c r="S11" t="n">
-        <v>78.48390397060358</v>
+        <v>78.48390397060362</v>
       </c>
       <c r="T11" t="n">
-        <v>15.07683114125362</v>
+        <v>15.07683114125363</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2755331790520363</v>
+        <v>0.2755331790520366</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.842790595511351</v>
+        <v>1.842790595511352</v>
       </c>
       <c r="H12" t="n">
-        <v>17.79747759349121</v>
+        <v>17.79747759349122</v>
       </c>
       <c r="I12" t="n">
-        <v>63.44695690686012</v>
+        <v>63.44695690686017</v>
       </c>
       <c r="J12" t="n">
-        <v>174.1032992013597</v>
+        <v>174.1032992013598</v>
       </c>
       <c r="K12" t="n">
-        <v>297.5702691006202</v>
+        <v>297.5702691006205</v>
       </c>
       <c r="L12" t="n">
-        <v>400.1199492578484</v>
+        <v>400.1199492578487</v>
       </c>
       <c r="M12" t="n">
-        <v>466.9211083451348</v>
+        <v>466.9211083451351</v>
       </c>
       <c r="N12" t="n">
-        <v>479.2791207159106</v>
+        <v>479.2791207159109</v>
       </c>
       <c r="O12" t="n">
-        <v>438.4467606785274</v>
+        <v>438.4467606785278</v>
       </c>
       <c r="P12" t="n">
-        <v>351.8921795937421</v>
+        <v>351.8921795937424</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.2306030340455</v>
+        <v>235.2306030340456</v>
       </c>
       <c r="R12" t="n">
-        <v>114.4146652195557</v>
+        <v>114.4146652195558</v>
       </c>
       <c r="S12" t="n">
-        <v>34.22902707013407</v>
+        <v>34.22902707013409</v>
       </c>
       <c r="T12" t="n">
-        <v>7.427739286293557</v>
+        <v>7.427739286293562</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1212362233889047</v>
+        <v>0.1212362233889048</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.544933731928555</v>
+        <v>1.544933731928557</v>
       </c>
       <c r="H13" t="n">
-        <v>13.73586536205571</v>
+        <v>13.73586536205572</v>
       </c>
       <c r="I13" t="n">
-        <v>46.46037077472421</v>
+        <v>46.46037077472424</v>
       </c>
       <c r="J13" t="n">
         <v>109.2268148473489</v>
       </c>
       <c r="K13" t="n">
-        <v>179.4932099458812</v>
+        <v>179.4932099458813</v>
       </c>
       <c r="L13" t="n">
-        <v>229.6895113814509</v>
+        <v>229.6895113814511</v>
       </c>
       <c r="M13" t="n">
-        <v>242.1753849058553</v>
+        <v>242.1753849058554</v>
       </c>
       <c r="N13" t="n">
-        <v>236.4169955413945</v>
+        <v>236.4169955413946</v>
       </c>
       <c r="O13" t="n">
-        <v>218.3693605820472</v>
+        <v>218.3693605820473</v>
       </c>
       <c r="P13" t="n">
-        <v>186.8527124507045</v>
+        <v>186.8527124507046</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.3671327708539</v>
+        <v>129.367132770854</v>
       </c>
       <c r="R13" t="n">
-        <v>69.46583852835121</v>
+        <v>69.46583852835126</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92398149188218</v>
+        <v>26.9239814918822</v>
       </c>
       <c r="T13" t="n">
-        <v>6.601080490967463</v>
+        <v>6.601080490967467</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08426911265064858</v>
+        <v>0.08426911265064864</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34141,7 +34141,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095029</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>111.2732724179112</v>
+        <v>111.2732724179114</v>
       </c>
       <c r="K11" t="n">
-        <v>218.0208192655257</v>
+        <v>218.020819265526</v>
       </c>
       <c r="L11" t="n">
-        <v>307.7486119456912</v>
+        <v>307.7486119456915</v>
       </c>
       <c r="M11" t="n">
-        <v>374.4189583504889</v>
+        <v>374.4189583504892</v>
       </c>
       <c r="N11" t="n">
-        <v>385.1378610434406</v>
+        <v>385.1378610434411</v>
       </c>
       <c r="O11" t="n">
-        <v>350.2048001033612</v>
+        <v>350.2048001033615</v>
       </c>
       <c r="P11" t="n">
-        <v>264.042198796689</v>
+        <v>264.0421987966893</v>
       </c>
       <c r="Q11" t="n">
-        <v>149.6253549924957</v>
+        <v>149.625354992496</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7639754187115955</v>
+        <v>0.7639754187117376</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.50150667978604</v>
+        <v>5.501506679785969</v>
       </c>
       <c r="J12" t="n">
-        <v>47.26567253469304</v>
+        <v>47.26567253469315</v>
       </c>
       <c r="K12" t="n">
-        <v>159.7288301262612</v>
+        <v>159.7288301262615</v>
       </c>
       <c r="L12" t="n">
-        <v>261.5655694779742</v>
+        <v>303.1424992509003</v>
       </c>
       <c r="M12" t="n">
-        <v>324.7870744231165</v>
+        <v>330.2603491720019</v>
       </c>
       <c r="N12" t="n">
-        <v>384.6755221258707</v>
+        <v>389.5143384055034</v>
       </c>
       <c r="O12" t="n">
-        <v>337.4274460070089</v>
+        <v>337.4274460070092</v>
       </c>
       <c r="P12" t="n">
-        <v>259.4947019523378</v>
+        <v>217.9177721794121</v>
       </c>
       <c r="Q12" t="n">
         <v>136.8257587209499</v>
       </c>
       <c r="R12" t="n">
-        <v>10.31209102851766</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.44456450360202</v>
+        <v>57.44456450360197</v>
       </c>
       <c r="K13" t="n">
         <v>198.8006478929243</v>
@@ -35574,7 +35574,7 @@
         <v>298.856466414693</v>
       </c>
       <c r="M13" t="n">
-        <v>323.3361916406217</v>
+        <v>323.3361916406218</v>
       </c>
       <c r="N13" t="n">
         <v>322.126097693549</v>
@@ -35586,7 +35586,7 @@
         <v>225.7082014885239</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.78201929208541</v>
+        <v>84.78201929208538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599215</v>
+        <v>87.15534638599202</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664096</v>
       </c>
       <c r="N16" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404658</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180362</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K19" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>246.7844518064652</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848623</v>
+        <v>216.9721971791863</v>
       </c>
       <c r="P19" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882471</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057493</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.33229981826674</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L22" t="n">
-        <v>234.9434039510706</v>
+        <v>242.3636716908628</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882471</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057621</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687138</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36510,22 +36510,22 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266726</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K25" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567485</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>245.4521519882006</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
@@ -36534,10 +36534,10 @@
         <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.37971366430239</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057493</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,10 +36589,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.53086068225309</v>
+        <v>14.53086068225306</v>
       </c>
       <c r="J26" t="n">
-        <v>246.8947914238916</v>
+        <v>321.2893546727418</v>
       </c>
       <c r="K26" t="n">
         <v>393.2990770105795</v>
@@ -36607,16 +36607,16 @@
         <v>608.4096258680904</v>
       </c>
       <c r="O26" t="n">
-        <v>572.8389347192665</v>
+        <v>564.1607913433982</v>
       </c>
       <c r="P26" t="n">
-        <v>454.8697766745509</v>
+        <v>454.8697766745508</v>
       </c>
       <c r="Q26" t="n">
         <v>306.9020952588985</v>
       </c>
       <c r="R26" t="n">
-        <v>181.4374088703863</v>
+        <v>115.7209889974038</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.6862070682453</v>
+        <v>68.04996574552192</v>
       </c>
       <c r="K28" t="n">
-        <v>155.4116836548461</v>
+        <v>262.1554499994986</v>
       </c>
       <c r="L28" t="n">
         <v>375.8651626253771</v>
       </c>
       <c r="M28" t="n">
-        <v>403.7411698486629</v>
+        <v>403.7411698486628</v>
       </c>
       <c r="N28" t="n">
         <v>400.9647366227191</v>
       </c>
       <c r="O28" t="n">
-        <v>308.3970754713465</v>
+        <v>304.9531553857084</v>
       </c>
       <c r="P28" t="n">
-        <v>291.0648616002895</v>
+        <v>156.0582982862483</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.15907061532124</v>
+        <v>134.5020289930727</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14.53086068225309</v>
+        <v>14.53086068225306</v>
       </c>
       <c r="J29" t="n">
-        <v>246.8947914238916</v>
+        <v>321.2893546727427</v>
       </c>
       <c r="K29" t="n">
         <v>393.2990770105795</v>
@@ -36847,13 +36847,13 @@
         <v>564.1607913433982</v>
       </c>
       <c r="P29" t="n">
-        <v>454.8697766745509</v>
+        <v>454.8697766745508</v>
       </c>
       <c r="Q29" t="n">
-        <v>315.5802386347659</v>
+        <v>306.9020952588985</v>
       </c>
       <c r="R29" t="n">
-        <v>181.4374088703863</v>
+        <v>115.7209889974038</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.04996574552192</v>
+        <v>101.6862070682452</v>
       </c>
       <c r="K31" t="n">
         <v>262.1554499994986</v>
@@ -36996,16 +36996,16 @@
         <v>375.8651626253771</v>
       </c>
       <c r="M31" t="n">
-        <v>403.7411698486629</v>
+        <v>353.4083167642498</v>
       </c>
       <c r="N31" t="n">
-        <v>400.9647366227191</v>
+        <v>229.1470197782573</v>
       </c>
       <c r="O31" t="n">
-        <v>195.4192543119364</v>
+        <v>358.4609206778188</v>
       </c>
       <c r="P31" t="n">
-        <v>265.5921993600193</v>
+        <v>291.0648616002895</v>
       </c>
       <c r="Q31" t="n">
         <v>134.5020289930727</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>14.53086068225321</v>
+        <v>14.53086068225304</v>
       </c>
       <c r="J32" t="n">
-        <v>246.8947914238917</v>
+        <v>246.8947914238915</v>
       </c>
       <c r="K32" t="n">
-        <v>393.2990770105797</v>
+        <v>393.2990770105795</v>
       </c>
       <c r="L32" t="n">
-        <v>511.6979048475113</v>
+        <v>511.6979048475112</v>
       </c>
       <c r="M32" t="n">
-        <v>595.0289062854059</v>
+        <v>595.0289062854057</v>
       </c>
       <c r="N32" t="n">
-        <v>608.4096258680906</v>
+        <v>608.4096258680904</v>
       </c>
       <c r="O32" t="n">
-        <v>564.1607913433984</v>
+        <v>564.1607913433982</v>
       </c>
       <c r="P32" t="n">
-        <v>454.869776674551</v>
+        <v>454.8697766745508</v>
       </c>
       <c r="Q32" t="n">
-        <v>315.5802386347641</v>
+        <v>381.2966585077493</v>
       </c>
       <c r="R32" t="n">
-        <v>181.4374088703864</v>
+        <v>115.7209889974038</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.04996574552206</v>
+        <v>101.6862070682452</v>
       </c>
       <c r="K34" t="n">
-        <v>155.4116836548462</v>
+        <v>262.1554499994986</v>
       </c>
       <c r="L34" t="n">
-        <v>375.8651626253773</v>
+        <v>375.8651626253771</v>
       </c>
       <c r="M34" t="n">
-        <v>403.741169848663</v>
+        <v>403.7411698486628</v>
       </c>
       <c r="N34" t="n">
-        <v>400.9647366227193</v>
+        <v>244.1571250715963</v>
       </c>
       <c r="O34" t="n">
-        <v>358.4609206778189</v>
+        <v>358.4609206778188</v>
       </c>
       <c r="P34" t="n">
-        <v>274.6372577165382</v>
+        <v>291.0648616002894</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.15907061532137</v>
+        <v>69.15907061532118</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37485,7 +37485,7 @@
         <v>13.0512801601422</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553997</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37695,19 +37695,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J40" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>233.6111041328036</v>
       </c>
       <c r="M40" t="n">
-        <v>255.5370193645223</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
         <v>270.7239495511833</v>
@@ -37716,13 +37716,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37932,22 +37932,22 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>88.27060879450299</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
         <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>249.3676628272379</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
         <v>236.9961840848623</v>
@@ -37956,10 +37956,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
-        <v>88.27060879450241</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591743</v>
+        <v>185.0315088932871</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057635</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
